--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arik Rinberg\Desktop\GitRepos\json-delta-crdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1D671-AAD6-4D94-86A6-745BBDB59CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A9468-52EA-4590-A5C5-10E68D221E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07BF1D62-9602-4DD2-9B5A-FFE17FE3C19E}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="[&gt;=1000000]0.0,,&quot;m&quot;;[&gt;=950]0.0,&quot;k&quot;;#,#00"/>
+    <numFmt numFmtId="164" formatCode="[&gt;=1000000]0.0,,&quot;m&quot;;[&gt;=950]0.0,&quot;k&quot;;#,#00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,12 +651,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -664,12 +661,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t> of updates</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of updates</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -687,12 +680,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -725,12 +715,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -776,12 +763,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -789,7 +773,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Encoded size[B]</a:t>
                 </a:r>
               </a:p>
@@ -808,12 +792,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -840,12 +821,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -883,12 +861,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -915,12 +890,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -930,7 +900,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-IL"/>
     </a:p>
@@ -1454,12 +1428,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1467,12 +1438,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t> of updates</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of updates</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1490,12 +1457,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1528,12 +1492,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1579,12 +1540,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1592,7 +1550,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Encoded size[B]</a:t>
                 </a:r>
               </a:p>
@@ -1611,12 +1569,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1643,12 +1598,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1686,12 +1638,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1718,12 +1667,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1733,7 +1677,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-IL"/>
     </a:p>
@@ -2287,12 +2235,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2300,12 +2245,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t> of update-delete pairs</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of update-delete pairs</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2323,12 +2264,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2361,12 +2299,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2412,12 +2347,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2425,7 +2357,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Encoded size[B]</a:t>
                 </a:r>
               </a:p>
@@ -2444,12 +2376,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2476,12 +2405,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2519,12 +2445,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2551,12 +2474,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2566,7 +2484,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-IL"/>
     </a:p>
@@ -4726,12 +4648,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4739,12 +4658,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t> of update-delete pairs</a:t>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of update-delete pairs</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4762,12 +4681,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4800,12 +4716,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4851,12 +4764,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4864,7 +4774,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Encoded size[B]</a:t>
                 </a:r>
               </a:p>
@@ -4883,12 +4797,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4915,12 +4826,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4958,12 +4866,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4990,12 +4895,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5005,7 +4905,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-IL"/>
     </a:p>
@@ -8910,7 +8810,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10083,7 +9983,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11821,7 +11721,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11875,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:J19" si="0">B2/B$2</f>
+        <f t="shared" ref="H2:J18" si="0">B2/B$2</f>
         <v>1</v>
       </c>
       <c r="I2">
